--- a/Auswertung/ev_strat/ev_strategie_dorf_dist.xlsx
+++ b/Auswertung/ev_strat/ev_strategie_dorf_dist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrissi\Git\Flexigrid\Auswertung\ev_strat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C72DCBD-B640-4608-928B-FB72091399B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A9AD29-8286-4437-AFC8-4E2D828C5296}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="3740" windowWidth="14400" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Erläuterung der Auswertung</t>
   </si>
@@ -178,6 +178,1617 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case 4'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'case 4'!$K$2:$K$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="116"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-676D-4586-B9D9-43041DE65168}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case 4'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Capacity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'case 4'!$L$2:$L$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="116"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53.897590855222603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>53.897590855222603</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>53.897590855222603</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>52.458512512735112</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>52.458512512735112</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>53.897590855222603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-676D-4586-B9D9-43041DE65168}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="548461704"/>
+        <c:axId val="466667456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="548461704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466667456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="466667456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548461704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>117928</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>134256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>113393</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64963300-2554-40F0-B1B3-EAE767D63BF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -795,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3859,7 +5470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
@@ -6928,8 +8539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9995,10 +11606,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L118" sqref="L118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10006,7 +11617,7 @@
     <col min="1" max="1" width="5.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -10028,8 +11639,14 @@
       <c r="H1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10054,8 +11671,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10080,8 +11703,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10106,8 +11735,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10132,8 +11767,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10158,8 +11799,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10184,8 +11831,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10210,8 +11863,14 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10236,8 +11895,14 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K9" s="1">
+        <v>30</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10262,8 +11927,14 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10288,8 +11959,14 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10314,8 +11991,14 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10340,8 +12023,14 @@
       <c r="H13" s="1">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10366,8 +12055,14 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10393,8 +12088,14 @@
         <v>2</v>
       </c>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K15" s="1">
+        <v>30</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -10419,8 +12120,14 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10445,8 +12152,14 @@
       <c r="H17" s="1">
         <v>53.897590855222603</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>53.897590855222603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -10471,8 +12184,14 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -10498,8 +12217,14 @@
         <v>2</v>
       </c>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -10524,8 +12249,14 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -10550,8 +12281,14 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -10576,8 +12313,14 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -10602,8 +12345,14 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K23" s="1">
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -10628,8 +12377,14 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -10654,8 +12409,14 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -10680,8 +12441,14 @@
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -10706,8 +12473,14 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -10732,8 +12505,14 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -10758,8 +12537,14 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K29" s="1">
+        <v>30</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -10784,8 +12569,14 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -10810,8 +12601,14 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K31" s="1">
+        <v>30</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -10836,8 +12633,14 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -10862,8 +12665,14 @@
       <c r="H33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K33" s="1">
+        <v>30</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -10888,8 +12697,14 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -10914,8 +12729,14 @@
       <c r="H35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K35" s="1">
+        <v>30</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -10940,8 +12761,14 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -10966,8 +12793,14 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -10992,8 +12825,14 @@
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -11018,8 +12857,14 @@
       <c r="H39" s="1">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -11044,8 +12889,14 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11070,8 +12921,14 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K41" s="1">
+        <v>30</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -11096,8 +12953,14 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -11122,8 +12985,14 @@
       <c r="H43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K43" s="1">
+        <v>30</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -11148,8 +13017,14 @@
       <c r="H44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -11174,8 +13049,14 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -11200,8 +13081,14 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -11226,8 +13113,14 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -11252,8 +13145,14 @@
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -11279,8 +13178,14 @@
         <v>2</v>
       </c>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -11305,8 +13210,14 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -11331,8 +13242,14 @@
       <c r="H51" s="1">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -11357,8 +13274,14 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
@@ -11383,8 +13306,14 @@
       <c r="H53" s="1">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -11409,8 +13338,14 @@
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
@@ -11435,8 +13370,14 @@
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K55" s="1">
+        <v>30</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
@@ -11461,8 +13402,14 @@
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
@@ -11487,8 +13434,14 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -11513,8 +13466,14 @@
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
@@ -11539,8 +13498,14 @@
       <c r="H59" s="1">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
@@ -11565,8 +13530,14 @@
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
@@ -11591,8 +13562,14 @@
       <c r="H61" s="1">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
@@ -11617,8 +13594,14 @@
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
@@ -11643,8 +13626,14 @@
       <c r="H63" s="1">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
@@ -11669,8 +13658,14 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
@@ -11695,8 +13690,14 @@
       <c r="H65" s="1">
         <v>53.897590855222603</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>53.897590855222603</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
@@ -11721,8 +13722,14 @@
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
@@ -11747,8 +13754,14 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
@@ -11773,8 +13786,14 @@
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
@@ -11799,8 +13818,14 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
@@ -11825,8 +13850,14 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
@@ -11851,8 +13882,14 @@
       <c r="H71" s="1">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
@@ -11877,8 +13914,14 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -11903,8 +13946,14 @@
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
@@ -11929,8 +13978,14 @@
       <c r="H74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
@@ -11955,8 +14010,14 @@
       <c r="H75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
@@ -11981,8 +14042,14 @@
       <c r="H76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
@@ -12007,8 +14074,14 @@
       <c r="H77" s="1">
         <v>53.897590855222603</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>53.897590855222603</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
@@ -12033,8 +14106,14 @@
       <c r="H78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
@@ -12059,8 +14138,14 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
@@ -12085,8 +14170,14 @@
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
@@ -12111,8 +14202,14 @@
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
@@ -12137,8 +14234,14 @@
       <c r="H82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
@@ -12163,8 +14266,14 @@
       <c r="H83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
@@ -12189,8 +14298,14 @@
       <c r="H84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
@@ -12215,8 +14330,14 @@
       <c r="H85" s="1">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
@@ -12241,8 +14362,14 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
@@ -12267,8 +14394,14 @@
       <c r="H87" s="1">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87" s="1">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
@@ -12293,8 +14426,14 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
@@ -12319,8 +14458,14 @@
       <c r="H89" s="1">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89" s="1">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
@@ -12345,8 +14490,14 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
@@ -12371,8 +14522,14 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K91" s="1">
+        <v>30</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
@@ -12397,8 +14554,14 @@
       <c r="H92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
@@ -12423,8 +14586,14 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
@@ -12449,8 +14618,14 @@
       <c r="H94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
@@ -12475,8 +14650,14 @@
       <c r="H95" s="1">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95" s="1">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
@@ -12501,8 +14682,14 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -12527,8 +14714,14 @@
       <c r="H97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K97" s="1">
+        <v>30</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>96</v>
       </c>
@@ -12553,8 +14746,14 @@
       <c r="H98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>97</v>
       </c>
@@ -12579,8 +14778,14 @@
       <c r="H99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K99" s="1">
+        <v>30</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>98</v>
       </c>
@@ -12605,8 +14810,14 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
@@ -12631,8 +14842,14 @@
       <c r="H101" s="1">
         <v>52.458512512735112</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K101" s="1">
+        <v>30</v>
+      </c>
+      <c r="L101" s="1">
+        <v>52.458512512735112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>100</v>
       </c>
@@ -12657,8 +14874,14 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>101</v>
       </c>
@@ -12683,8 +14906,14 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>102</v>
       </c>
@@ -12709,8 +14938,14 @@
       <c r="H104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>103</v>
       </c>
@@ -12736,8 +14971,14 @@
         <v>2</v>
       </c>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>104</v>
       </c>
@@ -12762,8 +15003,14 @@
       <c r="H106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>105</v>
       </c>
@@ -12788,8 +15035,14 @@
       <c r="H107" s="1">
         <v>52.458512512735112</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K107" s="1">
+        <v>30</v>
+      </c>
+      <c r="L107" s="1">
+        <v>52.458512512735112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>106</v>
       </c>
@@ -12814,8 +15067,14 @@
       <c r="H108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>107</v>
       </c>
@@ -12840,8 +15099,14 @@
       <c r="H109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K109" s="1">
+        <v>30</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>108</v>
       </c>
@@ -12866,8 +15131,14 @@
       <c r="H110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -12892,8 +15163,14 @@
       <c r="H111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K111" s="1">
+        <v>30</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>110</v>
       </c>
@@ -12918,8 +15195,14 @@
       <c r="H112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>111</v>
       </c>
@@ -12945,8 +15228,14 @@
         <v>2</v>
       </c>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K113" s="1">
+        <v>30</v>
+      </c>
+      <c r="L113" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>112</v>
       </c>
@@ -12971,8 +15260,14 @@
       <c r="H114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>113</v>
       </c>
@@ -12998,8 +15293,14 @@
         <v>2</v>
       </c>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K115" s="1">
+        <v>30</v>
+      </c>
+      <c r="L115" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>114</v>
       </c>
@@ -13024,8 +15325,14 @@
       <c r="H116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>115</v>
       </c>
@@ -13050,14 +15357,24 @@
       <c r="H117" s="1">
         <v>53.897590855222603</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117" s="1">
+        <v>53.897590855222603</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H118">
         <f>SUM(H2:H117)</f>
         <v>1023.7073884463607</v>
       </c>
+      <c r="L118">
+        <v>1023.7073884463607</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>